--- a/Hardware/master/Stock de materiales.xlsx
+++ b/Hardware/master/Stock de materiales.xlsx
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>135</v>
